--- a/data/trans_dic/P14B23-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,54</t>
+          <t>0,46; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,12</t>
+          <t>0,23; 2,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,66</t>
+          <t>1,04; 4,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,07</t>
+          <t>0,81; 5,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,37</t>
+          <t>1,34; 5,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,25</t>
+          <t>3,52; 7,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,11</t>
+          <t>0,86; 3,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,98</t>
+          <t>1,01; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,65</t>
+          <t>2,53; 4,78</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,9</t>
+          <t>0,73; 4,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,81</t>
+          <t>0,49; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,28</t>
+          <t>1,45; 4,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,62</t>
+          <t>1,5; 5,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,24</t>
+          <t>1,1; 4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,35</t>
+          <t>4,94; 9,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,15</t>
+          <t>1,48; 4,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,21</t>
+          <t>1,0; 2,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,07</t>
+          <t>3,48; 6,15</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,26</t>
+          <t>2,89; 6,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,72</t>
+          <t>0,56; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,16</t>
+          <t>1,02; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,71</t>
+          <t>5,45; 12,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 15,66</t>
+          <t>5,18; 14,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,36</t>
+          <t>6,96; 14,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,26</t>
+          <t>4,03; 7,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,01</t>
+          <t>2,06; 4,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,23</t>
+          <t>1,84; 7,48</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,21</t>
+          <t>1,97; 4,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,75</t>
+          <t>1,78; 3,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,61</t>
+          <t>3,3; 5,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,84</t>
+          <t>5,01; 9,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,75</t>
+          <t>3,53; 6,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,95</t>
+          <t>2,86; 8,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,52</t>
+          <t>3,64; 5,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,62</t>
+          <t>2,8; 4,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,12</t>
+          <t>3,72; 6,14</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,2</t>
+          <t>0,77; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,74</t>
+          <t>1,86; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,98</t>
+          <t>3,15; 6,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,64</t>
+          <t>8,91; 13,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,11</t>
+          <t>7,68; 12,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,09</t>
+          <t>6,64; 10,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 8,95</t>
+          <t>6,04; 9,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,16</t>
+          <t>5,37; 8,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 8,99</t>
+          <t>6,05; 8,99</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1241,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,96</t>
+          <t>1,85; 10,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,79</t>
+          <t>7,99; 11,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 10,24</t>
+          <t>6,78; 10,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,08</t>
+          <t>6,56; 10,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,18</t>
+          <t>6,48; 9,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,24</t>
+          <t>5,53; 8,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,2</t>
+          <t>5,8; 8,74</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,02</t>
+          <t>1,91; 3,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,49</t>
+          <t>1,53; 2,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,36</t>
+          <t>2,72; 4,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,06</t>
+          <t>7,06; 9,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 7,59</t>
+          <t>5,83; 7,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,21</t>
+          <t>5,9; 8,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,89</t>
+          <t>4,75; 5,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 4,96</t>
+          <t>3,9; 4,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,14</t>
+          <t>4,71; 6,13</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6008</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10334</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7104</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22849</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13112</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13896</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33182</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2000; 14415</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1007; 9547</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5268; 20682</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2561; 16813</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4644; 18928</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15729; 32137</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6427; 24503</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7864; 23556</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24083; 45542</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11709</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10943</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8860</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26555</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19153</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13843</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38264</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3047; 17158</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1838; 11026</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6560; 19755</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5060; 19447</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4112; 18458</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18883; 35676</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11164; 30467</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7490; 22170</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29034; 51380</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26834</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7281</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22697</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22349</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15182</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16994</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49183</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22463</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39691</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18156; 40386</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2908; 14618</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6816; 40357</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14125; 32410</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8604; 24011</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11621; 23970</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35747; 63944</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14200; 34263</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15364; 62481</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33371</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30624</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44719</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>52364</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41080</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57435</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85735</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>71704</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>102154</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22830; 48252</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20476; 43554</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34142; 60380</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38028; 68445</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29140; 55805</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27978; 79165</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69782; 106910</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55352; 89628</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74929; 123537</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8724</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19159</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22686</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>85242</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>71748</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>76516</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93966</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90908</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99202</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3956; 15768</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11522; 28905</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14974; 32827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>67669; 103501</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56698; 89375</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>55823; 92324</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>76759; 114758</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>72937; 111580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>79661; 118280</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10685</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>106992</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>91043</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>61305</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>106992</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>91994</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71990</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5616</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4439; 24599</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>88598; 130311</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>73400; 111512</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>49931; 77458</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>89129; 126906</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>75764; 114174</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>58105; 87526</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>83147</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>122829</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>284994</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>237917</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>261653</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>368141</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>304808</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>384482</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>65449; 103381</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51705; 86095</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>91873; 150067</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>249840; 319036</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>205800; 269968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>211026; 291492</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>330664; 408253</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>269837; 339632</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>327582; 426011</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P14B23-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
